--- a/InvoiceBuilder/InvoiceBuilder.Report.Impl/Invoice.xlsx
+++ b/InvoiceBuilder/InvoiceBuilder.Report.Impl/Invoice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nuits.jp\source\repos\InvoiceBuilder\InvoiceBuilder.Report.Impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocsStudy\InvoiceBuilder\InvoiceBuilder.Report.Impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76C9CCC7-AFB2-4E86-9E0D-798386DB9607}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74A2834E-9150-4AC6-B8BB-07E1A1F33B43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13935" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
   </bookViews>
@@ -248,13 +248,13 @@
     <t>$OrderDate</t>
   </si>
   <si>
-    <t>$StoreName</t>
-  </si>
-  <si>
     <t>$Name</t>
   </si>
   <si>
     <t>$Address</t>
+  </si>
+  <si>
+    <t>$CompanyName</t>
   </si>
 </sst>
 </file>
@@ -573,14 +573,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1124,13 +1124,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -1142,15 +1142,15 @@
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="31"/>
+      <c r="B4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="32"/>
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1161,7 @@
     <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A5" s="28"/>
       <c r="B5" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>2</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>25</v>
